--- a/Test_Cases/Test_Case_SauceDemo.xlsx
+++ b/Test_Cases/Test_Case_SauceDemo.xlsx
@@ -1,12 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29609"/>
   <workbookPr/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2260A6B7-D74B-4BCA-8BBB-24FE93210F49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Test_Case" sheetId="1" r:id="rId4"/>
+    <sheet name="TestCase" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -67,7 +87,7 @@
     <t>Login with valid credentials</t>
   </si>
   <si>
-    <t>User is on Login page 
+    <t>User is on Login page
 Test Environmet:
 - OS: Windows 11
 - Browser: Brave and Chrome</t>
@@ -119,9 +139,8 @@
 User remains on Login page</t>
   </si>
   <si>
-    <t xml:space="preserve">An error message is displayed after clicking Login.
-The system does not allow login and the user remains on the Login page.
-</t>
+    <t>An error message is displayed after clicking Login.
+The system does not allow login and the user remains on the Login page.</t>
   </si>
   <si>
     <t>TC-INV-001</t>
@@ -130,7 +149,7 @@
     <t>Inventory</t>
   </si>
   <si>
-    <t>Can open inventory page 
+    <t>Can open inventory page
 and display product list on inventory page</t>
   </si>
   <si>
@@ -140,28 +159,25 @@
 - Browser: Brave and Chrome</t>
   </si>
   <si>
-    <t xml:space="preserve">User login with following credentials
+    <t>User login with following credentials
 Username: standard_user
-Password: secret_sauce
-</t>
+Password: secret_sauce</t>
   </si>
   <si>
     <t>Products are displayed
-Each product shows image, name, 
-description, price, 
+Each product shows image, name,
+description, price,
 and Add to cart button</t>
   </si>
   <si>
-    <t xml:space="preserve">Products are displayed on the Inventory page.
-Each product shows an image, product name, 
-description, price, and an Add to Cart button.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User login with following credentials
+    <t>Products are displayed on the Inventory page.
+Each product shows an image, product name,
+description, price, and an Add to Cart button.</t>
+  </si>
+  <si>
+    <t>User login with following credentials
 Username: problem_user
-Password: secret_sauce
-</t>
+Password: secret_sauce</t>
   </si>
   <si>
     <t>Inventory page loads successfully, but product images are incorrect.
@@ -178,8 +194,7 @@
     <t>Cart</t>
   </si>
   <si>
-    <t xml:space="preserve">Add product to cart from inventory page
-</t>
+    <t>Add product to cart from inventory page</t>
   </si>
   <si>
     <t>Click Add to cart on a product</t>
@@ -189,22 +204,19 @@
 Cart icon badge increases by 1</t>
   </si>
   <si>
-    <t xml:space="preserve">After clicking the Add to Cart button, the button text 
+    <t>After clicking the Add to Cart button, the button text
 changes to "Remove".
-The cart icon badge increases by 1.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">After clicking the Add to Cart button, the button text changes to "Remove".
-The cart icon badge increases by 1.
-</t>
+The cart icon badge increases by 1.</t>
+  </si>
+  <si>
+    <t>After clicking the Add to Cart button, the button text changes to "Remove".
+The cart icon badge increases by 1.</t>
   </si>
   <si>
     <t>TC-CART-002</t>
   </si>
   <si>
-    <t xml:space="preserve">Remove product on cart from inventory page
-</t>
+    <t>Remove product on cart from inventory page</t>
   </si>
   <si>
     <t>Product is already added to cart
@@ -229,9 +241,8 @@
 Password: secret_sauce</t>
   </si>
   <si>
-    <t xml:space="preserve">Clicking the Remove button has no effect.
-Product remains in the cart and cart badge does not decrease.
-</t>
+    <t>Clicking the Remove button has no effect.
+Product remains in the cart and cart badge does not decrease.</t>
   </si>
   <si>
     <t>TC-CART-003</t>
@@ -272,23 +283,20 @@
     <t>User is redirected to Checkout Overview page</t>
   </si>
   <si>
-    <t xml:space="preserve">User is redirected to the Checkout Overview page successfully.
-The entered First Name, Last Name, and Zip/Postal Code are processed correctly 
-and the checkout information is displayed as expected.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User cannot enter text into the Last Name field.
-Input focus moves to the First Name field, 
-preventing navigation to the Checkout Overview page.
-</t>
+    <t>User is redirected to the Checkout Overview page successfully.
+The entered First Name, Last Name, and Zip/Postal Code are processed correctly
+and the checkout information is displayed as expected.</t>
+  </si>
+  <si>
+    <t>User cannot enter text into the Last Name field.
+Input focus moves to the First Name field,
+preventing navigation to the Checkout Overview page.</t>
   </si>
   <si>
     <t>TC-CHECKOUT-002</t>
   </si>
   <si>
-    <t xml:space="preserve">Finish checkout successfully
-</t>
+    <t>Finish checkout successfully</t>
   </si>
   <si>
     <t>User is on Checkout Overview page
@@ -303,9 +311,8 @@
     <t>Checkout Complete page is displayed</t>
   </si>
   <si>
-    <t xml:space="preserve">Checkout Complete page is displayed successfully.
-The order confirmation message and success icon are shown.
-</t>
+    <t>Checkout Complete page is displayed successfully.
+The order confirmation message and success icon are shown.</t>
   </si>
   <si>
     <t>TC-UI-001</t>
@@ -329,9 +336,8 @@
     <t>Cursor changes to pointer</t>
   </si>
   <si>
-    <t xml:space="preserve">When hovering over the Cart icon, the cursor does not change to a pointer.
-The cursor remains in the default state.
-</t>
+    <t>When hovering over the Cart icon, the cursor does not change to a pointer.
+The cursor remains in the default state.</t>
   </si>
   <si>
     <t>TC-UI-002</t>
@@ -345,75 +351,100 @@
 3.Observe the orientation of the dropdown icon</t>
   </si>
   <si>
-    <t>Sort dropdown icon should change orientation 
+    <t>Sort dropdown icon should change orientation
 to indicate active/expanded state
 (e.g. arrow changes direction)</t>
   </si>
   <si>
-    <t xml:space="preserve">Sort dropdown icon does not change orientation when clicked.
-</t>
+    <t>Sort dropdown icon does not change orientation when clicked.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5">
     <font>
-      <sz val="10.0"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
+      <charset val="1"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <charset val="1"/>
     </font>
     <font>
-      <b/>
-      <u/>
-      <color rgb="FF0000FF"/>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF999999"/>
-        <bgColor rgb="FF999999"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFD9D9D9"/>
-        <bgColor rgb="FFD9D9D9"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFCCCCCC"/>
-        <bgColor rgb="FFCCCCCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF34A853"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
-    <border/>
+  <borders count="12">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -425,132 +456,411 @@
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color rgb="FFCCCCCC"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
+  <cellXfs count="28">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="7"/>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border/>
-    </dxf>
-    <dxf>
-      <font/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-      <border/>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Sheets">
+    <a:clrScheme name="Office">
       <a:dk1>
-        <a:srgbClr val="000000"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="FFFFFF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="000000"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="FFFFFF"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4285F4"/>
+        <a:srgbClr val="145F82"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="EA4335"/>
+        <a:srgbClr val="E87331"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="FBBC04"/>
+        <a:srgbClr val="186C24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="34A853"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="FF6D01"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="46BDC6"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Sheets">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Aptos Display" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -612,13 +922,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -627,6 +930,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -691,679 +1001,609 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="14.38"/>
-    <col customWidth="1" min="2" max="2" width="7.75"/>
-    <col customWidth="1" min="3" max="3" width="39.5"/>
-    <col customWidth="1" min="4" max="4" width="31.0"/>
-    <col customWidth="1" min="5" max="5" width="24.0"/>
-    <col customWidth="1" min="6" max="6" width="44.75"/>
-    <col customWidth="1" min="7" max="7" width="34.5"/>
-    <col customWidth="1" min="8" max="8" width="55.88"/>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.85546875" customWidth="1"/>
+    <col min="5" max="5" width="36" customWidth="1"/>
+    <col min="6" max="6" width="32.42578125" customWidth="1"/>
+    <col min="7" max="7" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="47.7109375" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:9">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="1"/>
-      <c r="B2" s="2" t="s">
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="4"/>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="5"/>
+      <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="2" t="s">
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="8"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="5"/>
+      <c r="B3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="5" t="s">
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="8"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="9"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="11"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="I5" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="J5" s="1"/>
-      <c r="K5" s="8"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="9" t="s">
+    </row>
+    <row r="6" spans="1:9" ht="67.5">
+      <c r="A6" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G6" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="H6" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="I6" s="9" t="s">
+      <c r="I6" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="J6" s="1"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="9" t="s">
+    </row>
+    <row r="7" spans="1:9" ht="67.5">
+      <c r="A7" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="11" t="s">
+      <c r="H7" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="I7" s="9" t="s">
+      <c r="I7" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="J7" s="1"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="9" t="s">
+    </row>
+    <row r="8" spans="1:9" ht="67.5">
+      <c r="A8" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="G8" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="H8" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="I8" s="9" t="s">
+      <c r="I8" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="J8" s="1"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="9" t="s">
+    </row>
+    <row r="9" spans="1:9" ht="81">
+      <c r="A9" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="F9" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="G9" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="H9" s="11" t="s">
+      <c r="H9" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="I9" s="9" t="s">
+      <c r="I9" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="J9" s="1"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="9" t="s">
+    </row>
+    <row r="10" spans="1:9" ht="81">
+      <c r="A10" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="F10" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="G10" s="11" t="s">
+      <c r="G10" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="H10" s="11" t="s">
+      <c r="H10" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="I10" s="9" t="s">
+      <c r="I10" s="25" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="9" t="s">
+    <row r="11" spans="1:9" ht="81">
+      <c r="A11" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="11" t="s">
+      <c r="F11" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="G11" s="11" t="s">
+      <c r="G11" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="H11" s="11" t="s">
+      <c r="H11" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="I11" s="9" t="s">
+      <c r="I11" s="24" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="9" t="s">
+    <row r="12" spans="1:9" ht="81">
+      <c r="A12" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="E12" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="F12" s="11" t="s">
+      <c r="F12" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="G12" s="11" t="s">
+      <c r="G12" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="H12" s="11" t="s">
+      <c r="H12" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="I12" s="9" t="s">
+      <c r="I12" s="24" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="9" t="s">
+    <row r="13" spans="1:9" ht="81">
+      <c r="A13" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="F13" s="11" t="s">
+      <c r="F13" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="G13" s="11" t="s">
+      <c r="G13" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="H13" s="11" t="s">
+      <c r="H13" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="I13" s="9" t="s">
+      <c r="I13" s="24" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="9" t="s">
+    <row r="14" spans="1:9" ht="81">
+      <c r="A14" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="E14" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F14" s="11" t="s">
+      <c r="F14" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="G14" s="11" t="s">
+      <c r="G14" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="H14" s="11" t="s">
+      <c r="H14" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="I14" s="9" t="s">
+      <c r="I14" s="25" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="9" t="s">
+    <row r="15" spans="1:9" ht="67.5">
+      <c r="A15" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="E15" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="F15" s="11" t="s">
+      <c r="F15" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="G15" s="11" t="s">
+      <c r="G15" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="H15" s="11" t="s">
+      <c r="H15" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="I15" s="9" t="s">
+      <c r="I15" s="24" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="9" t="s">
+    <row r="16" spans="1:9" ht="67.5">
+      <c r="A16" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="E16" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="F16" s="11" t="s">
+      <c r="F16" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="G16" s="11" t="s">
+      <c r="G16" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="H16" s="11" t="s">
+      <c r="H16" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="I16" s="9" t="s">
+      <c r="I16" s="24" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="9" t="s">
+    <row r="17" spans="1:9" ht="67.5">
+      <c r="A17" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="E17" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="F17" s="11" t="s">
+      <c r="F17" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="G17" s="11" t="s">
+      <c r="G17" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="H17" s="11" t="s">
+      <c r="H17" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="I17" s="9" t="s">
+      <c r="I17" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="J17" s="1"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="9" t="s">
+    </row>
+    <row r="18" spans="1:9" ht="67.5">
+      <c r="A18" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="E18" s="11" t="s">
+      <c r="E18" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="F18" s="11" t="s">
+      <c r="F18" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="G18" s="11" t="s">
+      <c r="G18" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="H18" s="11" t="s">
+      <c r="H18" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="I18" s="9" t="s">
+      <c r="I18" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="J18" s="1"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="9" t="s">
+    </row>
+    <row r="19" spans="1:9" ht="81">
+      <c r="A19" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="D19" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="E19" s="11" t="s">
+      <c r="E19" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="F19" s="11" t="s">
+      <c r="F19" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="G19" s="11" t="s">
+      <c r="G19" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="H19" s="11" t="s">
+      <c r="H19" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="I19" s="9" t="s">
+      <c r="I19" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="J19" s="1"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="9" t="s">
+    </row>
+    <row r="20" spans="1:9" ht="81">
+      <c r="A20" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="E20" s="11" t="s">
+      <c r="E20" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="F20" s="11" t="s">
+      <c r="F20" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="G20" s="11" t="s">
+      <c r="G20" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="H20" s="11" t="s">
+      <c r="H20" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="I20" s="9" t="s">
+      <c r="I20" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="J20" s="1"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="9" t="s">
+    </row>
+    <row r="21" spans="1:9" ht="81">
+      <c r="A21" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="D21" s="11" t="s">
+      <c r="D21" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="E21" s="11" t="s">
+      <c r="E21" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="F21" s="11" t="s">
+      <c r="F21" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="G21" s="11" t="s">
+      <c r="G21" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="H21" s="11" t="s">
+      <c r="H21" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="I21" s="9" t="s">
+      <c r="I21" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="J21" s="1"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="H1:H4 I5:I21 H22:H1000">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>"Pass"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H1:H4 I5:I21 H22:H1000">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="C3"/>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{18E8475B-0FC8-45B0-8DBB-9C85A456EC74}"/>
   </hyperlinks>
-  <drawing r:id="rId2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>